--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -356,102 +356,102 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(03.16)
-점심메뉴
-[테이크아웃도시락]
-*4500원
-현미밥
-돈육메추리알조림
-깐풍만두
-계란스크램블
-양상치샐러드
-목이버섯볶음
-맛김치볶음
-*모듬김밥[5000원]
-*11:30~13:30
-저녁메뉴
-[테이크아웃도시락]
-마파두부덮밥/
-바나나
-*17:30~18:30
-[코로나19 대비
+          <t>선택한 날짜 : 월(03.23)
+점심메뉴
+[테이크아웃도시락]
+*4500원-11:30~13:30
+현미밥
+쇠불고기볶음
+모듬튀김
+건새우볶음
+무말랭이무침
+풋마늘무침
+맛김치볶음
+*모듬김밥[5000원]
+-11:45~30개 한정
+저녁메뉴
+[컵밥도시락-3500원]
+매운짜장덮밥
+요구르트
+*17:30~18:30
+[코로나19 확산대비
+다중이용시설 폐쇄]
+식당 안에서 식사는
+금지합니다</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 화(03.24)
+점심메뉴
+[테이크아웃도시락]
+*4500원-11:30~13:30
+현미밥
+조림닭
+베이컨숙주볶음
+야채춘권
+도토리묵무침
+도라지나물볶음
+맛김치볶음
+*모듬김밥[5000원]
+-11:45~30개 한정
+저녁메뉴
+[컵밥도시락-3500원]
+함박마요덮밥
+*17:30~18:30
+[코로나19 확산대비
 다중이용시설 폐쇄]
 식당 안에서 식사는
 금지합니다.</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 화(03.17)
-점심메뉴
-[테이크아웃도시락]
-*4500원
-현미밥
-부추제육볶음
-새우가스/생선가스
-브로컬리두부무침
-콩나물무침
-진미채무침
-맛김치볶음
-*모듬김밥[5000원]
-*11:30~13:30
-저녁메뉴
-[테이크아웃도시락]
-새우볶음밥
-*17:30~18:30
-[코로나19 대비
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>선택한 날짜 : 수(03.25)
+점심메뉴
+[테이크아웃도시락]
+*4500원-11:30~13:30
+현미밥
+목련꽃돈가스
+오징어우동면볶음
+어묵야채볶음
+야채계란말이
+멸치호두조림
+맛김치볶음
+*모듬김밥[5000원]
+-11:45~30개 한정
+저녁메뉴
+[컵밥도시락-3500원]
+우렁된장비빔밥
+과채쥬스
+*17:30~18:30
+[코로나19 확산 대비
 다중이용시설 폐쇄]
 식당 안에서 식사는
 금지합니다.</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>선택한 날짜 : 수(03.18)
-점심메뉴
-[테이크아웃도시락]
-*4500원
-현미밥
-매콤고추잡채/꽃빵
-닭강정
-마카로니소스무침
-검정콩조림
-미역줄기볶음
-백깍두기
-*모듬김밥[5000원]
-*11:30~13:30
-저녁메뉴
-[테이크아웃도시락]
-모듬나물볶음밥/
-발효음료
-*17:30~18:30
-[코로나19 대비
-다중이용시설 폐쇄]
-식당 안에서 식사는
-금지합니다</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 목(03.19)
-점심메뉴
-[테이크아웃도시락]
-*4500원
-현미밥
-오리훈제볶음
-두부양념구이
-시금치무침
-땅콩우엉조림
-양상치샐러드
-맛김치볶음
-*모듬김밥[5000원]
-*11:30~13:30
-저녁메뉴
-[테이크아웃도시락]
-콩나물불고기덮밥/
-새우칩
-*17:30~18:30
-[코로나19 대비
+          <t>선택한 날짜 : 목(03.26)
+점심메뉴
+[테이크아웃도시락]
+*4500원-11:30~13:30
+현미밥
+돈육야채조림
+간장떡볶이
+닭매콤조림
+모듬산나물무침
+쥐어채볶음
+맛김치볶음
+*모듬김밥[5000원]
+-11:45~30개 한정
+저녁메뉴
+[컵밥도시락-3500원]
+추억의도시락
+쿨피스
+*17:30~18:30
+[코로나19 확산대비
 다중이용시설 폐쇄]
 식당 안에서 식사는
 금지합니다.</t>
@@ -459,25 +459,25 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 금(03.20)
-점심메뉴
-[테이크아웃도시락]
-*4500원
-현미밥
-매콤갈비찜
-상치달래겉절이
-순대야채볶음
-가지나물무침
-건오징어채무침
-맛김치볶음
-*모듬김밥[5000원]
-*11:30~13:30
-저녁메뉴
-[테이크아웃도시락]
-중화비빔밥/ 
-발효음료
-*17:30~18:30
-[코로나19 대비
+          <t>선택한 날짜 : 금(03.27)
+점심메뉴
+[테이크아웃도시락]
+*4500원-11:30~13:30
+현미밥
+오돈불고기볶음
+두부은행구이
+동그랑땡전
+오이부추생채
+맛김치볶음
+찐고구마
+*모듬김밥[5000원]
+-11:45~30개 한정
+저녁메뉴
+[컵밥도시락-3500원]
+오므라이스
+과채쥬스
+*17:30~18:30
+[코로나19 확산대비
 다중이용시설 폐쇄]
 식당 안에서 식사는
 금지합니다.</t>
@@ -485,7 +485,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 토(03.21)
+          <t>선택한 날짜 : 토(03.28)
 점심메뉴
 식당 운영 없음
 저녁메뉴
@@ -494,7 +494,7 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 일(03.22)
+          <t>선택한 날짜 : 일(03.29)
 점심메뉴
 식당 운영 없음
 저녁메뉴
@@ -616,25 +616,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(03.16)
-점심메뉴
-[테이크아웃도시락]
-*4500원
-현미밥
-돈육메추리알조림
-깐풍만두
-계란스크램블
-양상치샐러드
-목이버섯볶음
-맛김치볶음
-*모듬김밥[5000원]
-*11:30~13:30
-저녁메뉴
-[테이크아웃도시락]
-마파두부덮밥/
-바나나
-*17:30~18:30
-[코로나19 대비
+          <t>선택한 날짜 : 월(03.23)
+점심메뉴
+[테이크아웃도시락]
+*4500원-11:30~13:30
+현미밥
+쇠불고기볶음
+모듬튀김
+건새우볶음
+무말랭이무침
+풋마늘무침
+맛김치볶음
+*모듬김밥[5000원]
+-11:45~30개 한정
+저녁메뉴
+[컵밥도시락-3500원]
+매운짜장덮밥
+요구르트
+*17:30~18:30
+[코로나19 확산대비
 다중이용시설 폐쇄]
 식당 안에서 식사는
 금지합니다.</t>
@@ -642,24 +642,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 화(03.17)
-점심메뉴
-[테이크아웃도시락]
-*4500원
-현미밥
-부추제육볶음
-새우가스/생선가스
-브로컬리두부무침
-콩나물무침
-진미채무침
-맛김치볶음
-*모듬김밥[5000원]
-*11:30~13:30
-저녁메뉴
-[테이크아웃도시락]
-새우볶음밥
-*17:30~18:30
-[코로나19 대비
+          <t>선택한 날짜 : 화(03.24)
+점심메뉴
+[테이크아웃도시락]
+*4500원-11:30~13:30
+현미밥
+조림닭
+베이컨숙주볶음
+야채춘권
+도토리묵무침
+도라지나물볶음
+맛김치볶음
+*모듬김밥[5000원]
+-11:45~30개 한정
+저녁메뉴
+[컵밥도시락-3500원]
+함박마요덮밥
+*17:30~18:30
+[코로나19 확산대비
 다중이용시설 폐쇄]
 식당 안에서 식사는
 금지합니다.</t>
@@ -667,25 +667,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 수(03.18)
-점심메뉴
-[테이크아웃도시락]
-*4500원
-현미밥
-매콤고추잡채/꽃빵
-닭강정
-마카로니소스무침
-검정콩조림
-미역줄기볶음
-백깍두기
-*모듬김밥[5000원]
-*11:30~13:30
-저녁메뉴
-[테이크아웃도시락]
-모듬나물볶음밥/
-발효음료
-*17:30~18:30
-[코로나19 대비
+          <t>선택한 날짜 : 수(03.25)
+점심메뉴
+[테이크아웃도시락]
+*4500원-11:30~13:30
+현미밥
+목련꽃돈가스
+오징어우동면볶음
+어묵야채볶음
+야채계란말이
+멸치호두조림
+맛김치볶음
+*모듬김밥[5000원]
+-11:45~30개 한정
+저녁메뉴
+[컵밥도시락-3500원]
+우렁된장비빔밥
+과채쥬스
+*17:30~18:30
+[코로나19 확산 대비
 다중이용시설 폐쇄]
 식당 안에서 식사는
 금지합니다.</t>
@@ -693,25 +693,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 목(03.19)
-점심메뉴
-[테이크아웃도시락]
-*4500원
-현미밥
-오리훈제볶음
-두부양념구이
-시금치무침
-땅콩우엉조림
-양상치샐러드
-맛김치볶음
-*모듬김밥[5000원]
-*11:30~13:30
-저녁메뉴
-[테이크아웃도시락]
-콩나물불고기덮밥/
-새우칩
-*17:30~18:30
-[코로나19 대비
+          <t>선택한 날짜 : 목(03.26)
+점심메뉴
+[테이크아웃도시락]
+*4500원-11:30~13:30
+현미밥
+돈육야채조림
+간장떡볶이
+닭매콤조림
+모듬산나물무침
+쥐어채볶음
+맛김치볶음
+*모듬김밥[5000원]
+-11:45~30개 한정
+저녁메뉴
+[컵밥도시락-3500원]
+추억의도시락
+쿨피스
+*17:30~18:30
+[코로나19 확산대비
 다중이용시설 폐쇄]
 식당 안에서 식사는
 금지합니다.</t>
@@ -719,25 +719,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 금(03.20)
-점심메뉴
-[테이크아웃도시락]
-*4500원
-현미밥
-매콤갈비찜
-상치달래겉절이
-순대야채볶음
-가지나물무침
-건오징어채무침
-맛김치볶음
-*모듬김밥[5000원]
-*11:30~13:30
-저녁메뉴
-[테이크아웃도시락]
-중화비빔밥/ 
-발효음료
-*17:30~18:30
-[코로나19 대비
+          <t>선택한 날짜 : 금(03.27)
+점심메뉴
+[테이크아웃도시락]
+*4500원-11:30~13:30
+현미밥
+오돈불고기볶음
+두부은행구이
+동그랑땡전
+오이부추생채
+맛김치볶음
+찐고구마
+*모듬김밥[5000원]
+-11:45~30개 한정
+저녁메뉴
+[컵밥도시락-3500원]
+오므라이스
+과채쥬스
+*17:30~18:30
+[코로나19 확산대비
 다중이용시설 폐쇄]
 식당 안에서 식사는
 금지합니다.</t>
@@ -745,7 +745,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 토(03.21)
+          <t>선택한 날짜 : 토(03.28)
 점심메뉴
 식당 운영 없음
 저녁메뉴
@@ -754,7 +754,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 일(03.22)
+          <t>선택한 날짜 : 일(03.29)
 점심메뉴
 식당 운영 없음
 저녁메뉴
@@ -765,43 +765,43 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 월(03.16)
+          <t>선택한 날짜 : 월(03.23)
 식당 운영 없음</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 화(03.17)
+          <t>선택한 날짜 : 화(03.24)
 식당 운영 없음</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 수(03.18)
+          <t>선택한 날짜 : 수(03.25)
 식당 운영 없음</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 목(03.19)
+          <t>선택한 날짜 : 목(03.26)
 식당 운영 없음</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 금(03.20)
+          <t>선택한 날짜 : 금(03.27)
 식당 운영 없음</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 토(03.21)
+          <t>선택한 날짜 : 토(03.28)
 식당 운영 없음</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>선택한 날짜 : 일(03.22)
+          <t>선택한 날짜 : 일(03.29)
 식당 운영 없음</t>
         </is>
       </c>
